--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>3456.045911885188</v>
+        <v>0.9259844145588888</v>
       </c>
       <c r="R2">
-        <v>31104.41320696669</v>
+        <v>8.33385973103</v>
       </c>
       <c r="S2">
-        <v>0.1431535142930261</v>
+        <v>0.004603048227294915</v>
       </c>
       <c r="T2">
-        <v>0.1431535142930261</v>
+        <v>0.004603048227294915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>8489.968951465666</v>
+        <v>13.80838762588356</v>
       </c>
       <c r="R3">
-        <v>76409.72056319099</v>
+        <v>124.275488632952</v>
       </c>
       <c r="S3">
-        <v>0.3516645677250375</v>
+        <v>0.06864119220991721</v>
       </c>
       <c r="T3">
-        <v>0.3516645677250375</v>
+        <v>0.06864119220991721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>4352.604691641313</v>
+        <v>5.241559786236667</v>
       </c>
       <c r="R4">
-        <v>39173.44222477182</v>
+        <v>47.17403807613</v>
       </c>
       <c r="S4">
-        <v>0.1802900406484723</v>
+        <v>0.02605567880296393</v>
       </c>
       <c r="T4">
-        <v>0.1802900406484723</v>
+        <v>0.02605567880296393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>23.1786451103</v>
+        <v>3.81834663623611</v>
       </c>
       <c r="R5">
-        <v>208.6078059927</v>
+        <v>34.36511972612499</v>
       </c>
       <c r="S5">
-        <v>0.0009600869284402429</v>
+        <v>0.01898091743098811</v>
       </c>
       <c r="T5">
-        <v>0.0009600869284402431</v>
+        <v>0.01898091743098811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>56.93963053174444</v>
@@ -818,10 +818,10 @@
         <v>512.4566747857</v>
       </c>
       <c r="S6">
-        <v>0.002358506924093341</v>
+        <v>0.2830456552628138</v>
       </c>
       <c r="T6">
-        <v>0.002358506924093341</v>
+        <v>0.2830456552628138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>29.19159120717499</v>
+        <v>21.61385425470833</v>
       </c>
       <c r="R7">
-        <v>262.724320864575</v>
+        <v>194.524688292375</v>
       </c>
       <c r="S7">
-        <v>0.001209150276256898</v>
+        <v>0.1074419957268284</v>
       </c>
       <c r="T7">
-        <v>0.001209150276256898</v>
+        <v>0.1074419957268284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>1640.023450619248</v>
+        <v>4.580796518737222</v>
       </c>
       <c r="R8">
-        <v>14760.21105557323</v>
+        <v>41.227168668635</v>
       </c>
       <c r="S8">
-        <v>0.0679317134276889</v>
+        <v>0.02277103908408291</v>
       </c>
       <c r="T8">
-        <v>0.0679317134276889</v>
+        <v>0.02277103908408291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>4028.808797808456</v>
+        <v>68.3093721357649</v>
       </c>
       <c r="R9">
-        <v>36259.27918027611</v>
+        <v>614.7843492218841</v>
       </c>
       <c r="S9">
-        <v>0.1668780312893313</v>
+        <v>0.3395643915529042</v>
       </c>
       <c r="T9">
-        <v>0.1668780312893313</v>
+        <v>0.3395643915529042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>2065.474229094747</v>
+        <v>25.92972240573167</v>
       </c>
       <c r="R10">
-        <v>18589.26806185273</v>
+        <v>233.367501651585</v>
       </c>
       <c r="S10">
-        <v>0.08555438848765345</v>
+        <v>0.1288960817022065</v>
       </c>
       <c r="T10">
-        <v>0.08555438848765345</v>
+        <v>0.1288960817022065</v>
       </c>
     </row>
   </sheetData>
